--- a/data/excel/languages.xlsx
+++ b/data/excel/languages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="764">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -46,6 +46,12 @@
     <t xml:space="preserve">level</t>
   </si>
   <si>
+    <t xml:space="preserve">alpha2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
     <t xml:space="preserve">aar</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t xml:space="preserve">Afar</t>
   </si>
   <si>
+    <t xml:space="preserve">aa</t>
+  </si>
+  <si>
     <t xml:space="preserve">abk</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t xml:space="preserve">Abkhazian</t>
   </si>
   <si>
+    <t xml:space="preserve">ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">afr</t>
   </si>
   <si>
@@ -73,6 +85,9 @@
     <t xml:space="preserve">Afrikaans</t>
   </si>
   <si>
+    <t xml:space="preserve">af</t>
+  </si>
+  <si>
     <t xml:space="preserve">aka</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t xml:space="preserve">Akan</t>
   </si>
   <si>
+    <t xml:space="preserve">ak</t>
+  </si>
+  <si>
     <t xml:space="preserve">amh</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
     <t xml:space="preserve">Amharic</t>
   </si>
   <si>
+    <t xml:space="preserve">am</t>
+  </si>
+  <si>
     <t xml:space="preserve">ara</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t xml:space="preserve">Arabic</t>
   </si>
   <si>
+    <t xml:space="preserve">ar</t>
+  </si>
+  <si>
     <t xml:space="preserve">arg</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t xml:space="preserve">Aragonese</t>
   </si>
   <si>
+    <t xml:space="preserve">an</t>
+  </si>
+  <si>
     <t xml:space="preserve">asm</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t xml:space="preserve">Assamese</t>
   </si>
   <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
     <t xml:space="preserve">ava</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t xml:space="preserve">Avaric</t>
   </si>
   <si>
+    <t xml:space="preserve">av</t>
+  </si>
+  <si>
     <t xml:space="preserve">ave</t>
   </si>
   <si>
@@ -136,6 +169,9 @@
     <t xml:space="preserve">Avestan</t>
   </si>
   <si>
+    <t xml:space="preserve">ae</t>
+  </si>
+  <si>
     <t xml:space="preserve">aym</t>
   </si>
   <si>
@@ -145,6 +181,9 @@
     <t xml:space="preserve">Aymara</t>
   </si>
   <si>
+    <t xml:space="preserve">ay</t>
+  </si>
+  <si>
     <t xml:space="preserve">aze</t>
   </si>
   <si>
@@ -154,6 +193,9 @@
     <t xml:space="preserve">Azerbaijani</t>
   </si>
   <si>
+    <t xml:space="preserve">az</t>
+  </si>
+  <si>
     <t xml:space="preserve">bak</t>
   </si>
   <si>
@@ -163,6 +205,9 @@
     <t xml:space="preserve">Bashkir</t>
   </si>
   <si>
+    <t xml:space="preserve">ba</t>
+  </si>
+  <si>
     <t xml:space="preserve">bam</t>
   </si>
   <si>
@@ -172,6 +217,9 @@
     <t xml:space="preserve">Bambara</t>
   </si>
   <si>
+    <t xml:space="preserve">bm</t>
+  </si>
+  <si>
     <t xml:space="preserve">bel</t>
   </si>
   <si>
@@ -181,6 +229,9 @@
     <t xml:space="preserve">Belarusian</t>
   </si>
   <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
     <t xml:space="preserve">ben</t>
   </si>
   <si>
@@ -190,6 +241,9 @@
     <t xml:space="preserve">Bangla</t>
   </si>
   <si>
+    <t xml:space="preserve">bn</t>
+  </si>
+  <si>
     <t xml:space="preserve">bis</t>
   </si>
   <si>
@@ -199,6 +253,9 @@
     <t xml:space="preserve">Bislama</t>
   </si>
   <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
     <t xml:space="preserve">tib</t>
   </si>
   <si>
@@ -208,6 +265,12 @@
     <t xml:space="preserve">Tibetan</t>
   </si>
   <si>
+    <t xml:space="preserve">bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bod</t>
+  </si>
+  <si>
     <t xml:space="preserve">bos</t>
   </si>
   <si>
@@ -217,6 +280,9 @@
     <t xml:space="preserve">Bosnian</t>
   </si>
   <si>
+    <t xml:space="preserve">bs</t>
+  </si>
+  <si>
     <t xml:space="preserve">bre</t>
   </si>
   <si>
@@ -226,6 +292,9 @@
     <t xml:space="preserve">Breton</t>
   </si>
   <si>
+    <t xml:space="preserve">br</t>
+  </si>
+  <si>
     <t xml:space="preserve">bul</t>
   </si>
   <si>
@@ -235,6 +304,9 @@
     <t xml:space="preserve">Bulgarian</t>
   </si>
   <si>
+    <t xml:space="preserve">bg</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat</t>
   </si>
   <si>
@@ -244,6 +316,9 @@
     <t xml:space="preserve">Catalan</t>
   </si>
   <si>
+    <t xml:space="preserve">ca</t>
+  </si>
+  <si>
     <t xml:space="preserve">cze</t>
   </si>
   <si>
@@ -253,6 +328,12 @@
     <t xml:space="preserve">Czech</t>
   </si>
   <si>
+    <t xml:space="preserve">cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ces</t>
+  </si>
+  <si>
     <t xml:space="preserve">cha</t>
   </si>
   <si>
@@ -262,6 +343,9 @@
     <t xml:space="preserve">Chamorro</t>
   </si>
   <si>
+    <t xml:space="preserve">ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">che</t>
   </si>
   <si>
@@ -271,6 +355,9 @@
     <t xml:space="preserve">Chechen</t>
   </si>
   <si>
+    <t xml:space="preserve">ce</t>
+  </si>
+  <si>
     <t xml:space="preserve">chu</t>
   </si>
   <si>
@@ -280,6 +367,9 @@
     <t xml:space="preserve">Church Slavic</t>
   </si>
   <si>
+    <t xml:space="preserve">cu</t>
+  </si>
+  <si>
     <t xml:space="preserve">chv</t>
   </si>
   <si>
@@ -289,6 +379,9 @@
     <t xml:space="preserve">Chuvash</t>
   </si>
   <si>
+    <t xml:space="preserve">cv</t>
+  </si>
+  <si>
     <t xml:space="preserve">cor</t>
   </si>
   <si>
@@ -298,6 +391,9 @@
     <t xml:space="preserve">Cornish</t>
   </si>
   <si>
+    <t xml:space="preserve">kw</t>
+  </si>
+  <si>
     <t xml:space="preserve">cos</t>
   </si>
   <si>
@@ -307,6 +403,9 @@
     <t xml:space="preserve">Corsican</t>
   </si>
   <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
     <t xml:space="preserve">cre</t>
   </si>
   <si>
@@ -316,6 +415,9 @@
     <t xml:space="preserve">Cree</t>
   </si>
   <si>
+    <t xml:space="preserve">cr</t>
+  </si>
+  <si>
     <t xml:space="preserve">wel</t>
   </si>
   <si>
@@ -325,6 +427,12 @@
     <t xml:space="preserve">Welsh</t>
   </si>
   <si>
+    <t xml:space="preserve">cy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cym</t>
+  </si>
+  <si>
     <t xml:space="preserve">dan</t>
   </si>
   <si>
@@ -334,6 +442,9 @@
     <t xml:space="preserve">Danish</t>
   </si>
   <si>
+    <t xml:space="preserve">da</t>
+  </si>
+  <si>
     <t xml:space="preserve">ger</t>
   </si>
   <si>
@@ -343,6 +454,12 @@
     <t xml:space="preserve">German</t>
   </si>
   <si>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deu</t>
+  </si>
+  <si>
     <t xml:space="preserve">div</t>
   </si>
   <si>
@@ -352,6 +469,9 @@
     <t xml:space="preserve">Divehi</t>
   </si>
   <si>
+    <t xml:space="preserve">dv</t>
+  </si>
+  <si>
     <t xml:space="preserve">dzo</t>
   </si>
   <si>
@@ -361,6 +481,9 @@
     <t xml:space="preserve">Dzongkha</t>
   </si>
   <si>
+    <t xml:space="preserve">dz</t>
+  </si>
+  <si>
     <t xml:space="preserve">gre</t>
   </si>
   <si>
@@ -370,6 +493,12 @@
     <t xml:space="preserve">Greek</t>
   </si>
   <si>
+    <t xml:space="preserve">el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ell</t>
+  </si>
+  <si>
     <t xml:space="preserve">eng</t>
   </si>
   <si>
@@ -379,6 +508,9 @@
     <t xml:space="preserve">English</t>
   </si>
   <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
     <t xml:space="preserve">epo</t>
   </si>
   <si>
@@ -388,6 +520,9 @@
     <t xml:space="preserve">Esperanto</t>
   </si>
   <si>
+    <t xml:space="preserve">eo</t>
+  </si>
+  <si>
     <t xml:space="preserve">est</t>
   </si>
   <si>
@@ -397,6 +532,9 @@
     <t xml:space="preserve">Estonian</t>
   </si>
   <si>
+    <t xml:space="preserve">et</t>
+  </si>
+  <si>
     <t xml:space="preserve">baq</t>
   </si>
   <si>
@@ -406,6 +544,12 @@
     <t xml:space="preserve">Basque</t>
   </si>
   <si>
+    <t xml:space="preserve">eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eus</t>
+  </si>
+  <si>
     <t xml:space="preserve">ewe</t>
   </si>
   <si>
@@ -415,6 +559,9 @@
     <t xml:space="preserve">Ewe</t>
   </si>
   <si>
+    <t xml:space="preserve">ee</t>
+  </si>
+  <si>
     <t xml:space="preserve">fao</t>
   </si>
   <si>
@@ -424,6 +571,9 @@
     <t xml:space="preserve">Faroese</t>
   </si>
   <si>
+    <t xml:space="preserve">fo</t>
+  </si>
+  <si>
     <t xml:space="preserve">per</t>
   </si>
   <si>
@@ -433,6 +583,12 @@
     <t xml:space="preserve">Persian</t>
   </si>
   <si>
+    <t xml:space="preserve">fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fas</t>
+  </si>
+  <si>
     <t xml:space="preserve">fij</t>
   </si>
   <si>
@@ -442,6 +598,9 @@
     <t xml:space="preserve">Fijian</t>
   </si>
   <si>
+    <t xml:space="preserve">fj</t>
+  </si>
+  <si>
     <t xml:space="preserve">fin</t>
   </si>
   <si>
@@ -451,6 +610,9 @@
     <t xml:space="preserve">Finnish</t>
   </si>
   <si>
+    <t xml:space="preserve">fi</t>
+  </si>
+  <si>
     <t xml:space="preserve">fre</t>
   </si>
   <si>
@@ -460,6 +622,12 @@
     <t xml:space="preserve">French</t>
   </si>
   <si>
+    <t xml:space="preserve">fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
     <t xml:space="preserve">fry</t>
   </si>
   <si>
@@ -469,6 +637,9 @@
     <t xml:space="preserve">Western Frisian</t>
   </si>
   <si>
+    <t xml:space="preserve">fy</t>
+  </si>
+  <si>
     <t xml:space="preserve">ful</t>
   </si>
   <si>
@@ -478,6 +649,9 @@
     <t xml:space="preserve">Fulah</t>
   </si>
   <si>
+    <t xml:space="preserve">ff</t>
+  </si>
+  <si>
     <t xml:space="preserve">gla</t>
   </si>
   <si>
@@ -487,6 +661,9 @@
     <t xml:space="preserve">Scottish Gaelic</t>
   </si>
   <si>
+    <t xml:space="preserve">gd</t>
+  </si>
+  <si>
     <t xml:space="preserve">gle</t>
   </si>
   <si>
@@ -496,6 +673,9 @@
     <t xml:space="preserve">Irish</t>
   </si>
   <si>
+    <t xml:space="preserve">ga</t>
+  </si>
+  <si>
     <t xml:space="preserve">glg</t>
   </si>
   <si>
@@ -505,6 +685,9 @@
     <t xml:space="preserve">Galician</t>
   </si>
   <si>
+    <t xml:space="preserve">gl</t>
+  </si>
+  <si>
     <t xml:space="preserve">glv</t>
   </si>
   <si>
@@ -514,6 +697,9 @@
     <t xml:space="preserve">Manx</t>
   </si>
   <si>
+    <t xml:space="preserve">gv</t>
+  </si>
+  <si>
     <t xml:space="preserve">grn</t>
   </si>
   <si>
@@ -523,6 +709,9 @@
     <t xml:space="preserve">Guarani</t>
   </si>
   <si>
+    <t xml:space="preserve">gn</t>
+  </si>
+  <si>
     <t xml:space="preserve">guj</t>
   </si>
   <si>
@@ -532,6 +721,9 @@
     <t xml:space="preserve">Gujarati</t>
   </si>
   <si>
+    <t xml:space="preserve">gu</t>
+  </si>
+  <si>
     <t xml:space="preserve">hat</t>
   </si>
   <si>
@@ -541,6 +733,9 @@
     <t xml:space="preserve">Haitian Creole</t>
   </si>
   <si>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
     <t xml:space="preserve">hau</t>
   </si>
   <si>
@@ -550,6 +745,9 @@
     <t xml:space="preserve">Hausa</t>
   </si>
   <si>
+    <t xml:space="preserve">ha</t>
+  </si>
+  <si>
     <t xml:space="preserve">hbs</t>
   </si>
   <si>
@@ -559,6 +757,9 @@
     <t xml:space="preserve">Serbo-Croatian</t>
   </si>
   <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">heb</t>
   </si>
   <si>
@@ -568,6 +769,9 @@
     <t xml:space="preserve">Hebrew</t>
   </si>
   <si>
+    <t xml:space="preserve">he</t>
+  </si>
+  <si>
     <t xml:space="preserve">her</t>
   </si>
   <si>
@@ -577,6 +781,9 @@
     <t xml:space="preserve">Herero</t>
   </si>
   <si>
+    <t xml:space="preserve">hz</t>
+  </si>
+  <si>
     <t xml:space="preserve">hin</t>
   </si>
   <si>
@@ -586,6 +793,9 @@
     <t xml:space="preserve">Hindi</t>
   </si>
   <si>
+    <t xml:space="preserve">hi</t>
+  </si>
+  <si>
     <t xml:space="preserve">hmo</t>
   </si>
   <si>
@@ -595,6 +805,9 @@
     <t xml:space="preserve">Hiri Motu</t>
   </si>
   <si>
+    <t xml:space="preserve">ho</t>
+  </si>
+  <si>
     <t xml:space="preserve">hrv</t>
   </si>
   <si>
@@ -604,6 +817,9 @@
     <t xml:space="preserve">Croatian</t>
   </si>
   <si>
+    <t xml:space="preserve">hr</t>
+  </si>
+  <si>
     <t xml:space="preserve">hun</t>
   </si>
   <si>
@@ -613,6 +829,9 @@
     <t xml:space="preserve">Hungarian</t>
   </si>
   <si>
+    <t xml:space="preserve">hu</t>
+  </si>
+  <si>
     <t xml:space="preserve">arm</t>
   </si>
   <si>
@@ -622,6 +841,12 @@
     <t xml:space="preserve">Armenian</t>
   </si>
   <si>
+    <t xml:space="preserve">hy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hye</t>
+  </si>
+  <si>
     <t xml:space="preserve">ibo</t>
   </si>
   <si>
@@ -631,12 +856,18 @@
     <t xml:space="preserve">Igbo</t>
   </si>
   <si>
+    <t xml:space="preserve">ig</t>
+  </si>
+  <si>
     <t xml:space="preserve">ido</t>
   </si>
   <si>
     <t xml:space="preserve">Ido</t>
   </si>
   <si>
+    <t xml:space="preserve">io</t>
+  </si>
+  <si>
     <t xml:space="preserve">iii</t>
   </si>
   <si>
@@ -646,6 +877,9 @@
     <t xml:space="preserve">Sichuan Yi</t>
   </si>
   <si>
+    <t xml:space="preserve">ii</t>
+  </si>
+  <si>
     <t xml:space="preserve">iku</t>
   </si>
   <si>
@@ -655,6 +889,9 @@
     <t xml:space="preserve">Inuktitut</t>
   </si>
   <si>
+    <t xml:space="preserve">iu</t>
+  </si>
+  <si>
     <t xml:space="preserve">ile</t>
   </si>
   <si>
@@ -664,6 +901,9 @@
     <t xml:space="preserve">Interlingue</t>
   </si>
   <si>
+    <t xml:space="preserve">ie</t>
+  </si>
+  <si>
     <t xml:space="preserve">ina</t>
   </si>
   <si>
@@ -673,6 +913,9 @@
     <t xml:space="preserve">Interlingua</t>
   </si>
   <si>
+    <t xml:space="preserve">ia</t>
+  </si>
+  <si>
     <t xml:space="preserve">ind</t>
   </si>
   <si>
@@ -682,6 +925,9 @@
     <t xml:space="preserve">Indonesian</t>
   </si>
   <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ipk</t>
   </si>
   <si>
@@ -691,6 +937,9 @@
     <t xml:space="preserve">Inupiaq</t>
   </si>
   <si>
+    <t xml:space="preserve">ik</t>
+  </si>
+  <si>
     <t xml:space="preserve">ice</t>
   </si>
   <si>
@@ -700,6 +949,12 @@
     <t xml:space="preserve">Icelandic</t>
   </si>
   <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isl</t>
+  </si>
+  <si>
     <t xml:space="preserve">ita</t>
   </si>
   <si>
@@ -709,6 +964,9 @@
     <t xml:space="preserve">Italian</t>
   </si>
   <si>
+    <t xml:space="preserve">it</t>
+  </si>
+  <si>
     <t xml:space="preserve">jav</t>
   </si>
   <si>
@@ -718,6 +976,9 @@
     <t xml:space="preserve">Javanese</t>
   </si>
   <si>
+    <t xml:space="preserve">jv</t>
+  </si>
+  <si>
     <t xml:space="preserve">jpn</t>
   </si>
   <si>
@@ -727,6 +988,9 @@
     <t xml:space="preserve">Japanese</t>
   </si>
   <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
     <t xml:space="preserve">kal</t>
   </si>
   <si>
@@ -736,6 +1000,9 @@
     <t xml:space="preserve">Kalaallisut</t>
   </si>
   <si>
+    <t xml:space="preserve">kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">kan</t>
   </si>
   <si>
@@ -745,6 +1012,9 @@
     <t xml:space="preserve">Kannada</t>
   </si>
   <si>
+    <t xml:space="preserve">kn</t>
+  </si>
+  <si>
     <t xml:space="preserve">kas</t>
   </si>
   <si>
@@ -754,6 +1024,9 @@
     <t xml:space="preserve">Kashmiri</t>
   </si>
   <si>
+    <t xml:space="preserve">ks</t>
+  </si>
+  <si>
     <t xml:space="preserve">geo</t>
   </si>
   <si>
@@ -763,6 +1036,12 @@
     <t xml:space="preserve">Georgian</t>
   </si>
   <si>
+    <t xml:space="preserve">ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kat</t>
+  </si>
+  <si>
     <t xml:space="preserve">kau</t>
   </si>
   <si>
@@ -772,6 +1051,9 @@
     <t xml:space="preserve">Kanuri</t>
   </si>
   <si>
+    <t xml:space="preserve">kr</t>
+  </si>
+  <si>
     <t xml:space="preserve">kaz</t>
   </si>
   <si>
@@ -781,6 +1063,9 @@
     <t xml:space="preserve">Kazakh</t>
   </si>
   <si>
+    <t xml:space="preserve">kk</t>
+  </si>
+  <si>
     <t xml:space="preserve">khm</t>
   </si>
   <si>
@@ -790,6 +1075,9 @@
     <t xml:space="preserve">Khmer</t>
   </si>
   <si>
+    <t xml:space="preserve">km</t>
+  </si>
+  <si>
     <t xml:space="preserve">kik</t>
   </si>
   <si>
@@ -799,6 +1087,9 @@
     <t xml:space="preserve">Kikuyu</t>
   </si>
   <si>
+    <t xml:space="preserve">ki</t>
+  </si>
+  <si>
     <t xml:space="preserve">kin</t>
   </si>
   <si>
@@ -808,6 +1099,9 @@
     <t xml:space="preserve">Kinyarwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">rw</t>
+  </si>
+  <si>
     <t xml:space="preserve">kir</t>
   </si>
   <si>
@@ -817,6 +1111,9 @@
     <t xml:space="preserve">Kyrgyz</t>
   </si>
   <si>
+    <t xml:space="preserve">ky</t>
+  </si>
+  <si>
     <t xml:space="preserve">kom</t>
   </si>
   <si>
@@ -826,6 +1123,9 @@
     <t xml:space="preserve">Komi</t>
   </si>
   <si>
+    <t xml:space="preserve">kv</t>
+  </si>
+  <si>
     <t xml:space="preserve">kon</t>
   </si>
   <si>
@@ -835,6 +1135,9 @@
     <t xml:space="preserve">Kongo</t>
   </si>
   <si>
+    <t xml:space="preserve">kg</t>
+  </si>
+  <si>
     <t xml:space="preserve">kor</t>
   </si>
   <si>
@@ -844,6 +1147,9 @@
     <t xml:space="preserve">Korean</t>
   </si>
   <si>
+    <t xml:space="preserve">ko</t>
+  </si>
+  <si>
     <t xml:space="preserve">kua</t>
   </si>
   <si>
@@ -853,6 +1159,9 @@
     <t xml:space="preserve">Kuanyama</t>
   </si>
   <si>
+    <t xml:space="preserve">kj</t>
+  </si>
+  <si>
     <t xml:space="preserve">kur</t>
   </si>
   <si>
@@ -862,6 +1171,9 @@
     <t xml:space="preserve">Kurdish</t>
   </si>
   <si>
+    <t xml:space="preserve">ku</t>
+  </si>
+  <si>
     <t xml:space="preserve">lao</t>
   </si>
   <si>
@@ -871,6 +1183,9 @@
     <t xml:space="preserve">Lao</t>
   </si>
   <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
     <t xml:space="preserve">lat</t>
   </si>
   <si>
@@ -880,6 +1195,9 @@
     <t xml:space="preserve">Latin</t>
   </si>
   <si>
+    <t xml:space="preserve">la</t>
+  </si>
+  <si>
     <t xml:space="preserve">lav</t>
   </si>
   <si>
@@ -889,6 +1207,9 @@
     <t xml:space="preserve">Latvian</t>
   </si>
   <si>
+    <t xml:space="preserve">lv</t>
+  </si>
+  <si>
     <t xml:space="preserve">lim</t>
   </si>
   <si>
@@ -898,6 +1219,9 @@
     <t xml:space="preserve">Limburgish</t>
   </si>
   <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
     <t xml:space="preserve">lin</t>
   </si>
   <si>
@@ -907,6 +1231,9 @@
     <t xml:space="preserve">Lingala</t>
   </si>
   <si>
+    <t xml:space="preserve">ln</t>
+  </si>
+  <si>
     <t xml:space="preserve">lit</t>
   </si>
   <si>
@@ -916,6 +1243,9 @@
     <t xml:space="preserve">Lithuanian</t>
   </si>
   <si>
+    <t xml:space="preserve">lt</t>
+  </si>
+  <si>
     <t xml:space="preserve">ltz</t>
   </si>
   <si>
@@ -925,6 +1255,9 @@
     <t xml:space="preserve">Luxembourgish</t>
   </si>
   <si>
+    <t xml:space="preserve">lb</t>
+  </si>
+  <si>
     <t xml:space="preserve">lub</t>
   </si>
   <si>
@@ -934,6 +1267,9 @@
     <t xml:space="preserve">Luba-Katanga</t>
   </si>
   <si>
+    <t xml:space="preserve">lu</t>
+  </si>
+  <si>
     <t xml:space="preserve">lug</t>
   </si>
   <si>
@@ -943,6 +1279,9 @@
     <t xml:space="preserve">Ganda</t>
   </si>
   <si>
+    <t xml:space="preserve">lg</t>
+  </si>
+  <si>
     <t xml:space="preserve">mah</t>
   </si>
   <si>
@@ -952,6 +1291,9 @@
     <t xml:space="preserve">Marshallese</t>
   </si>
   <si>
+    <t xml:space="preserve">mh</t>
+  </si>
+  <si>
     <t xml:space="preserve">mal</t>
   </si>
   <si>
@@ -961,6 +1303,9 @@
     <t xml:space="preserve">Malayalam</t>
   </si>
   <si>
+    <t xml:space="preserve">ml</t>
+  </si>
+  <si>
     <t xml:space="preserve">mar</t>
   </si>
   <si>
@@ -970,6 +1315,9 @@
     <t xml:space="preserve">Marathi</t>
   </si>
   <si>
+    <t xml:space="preserve">mr</t>
+  </si>
+  <si>
     <t xml:space="preserve">mac</t>
   </si>
   <si>
@@ -979,6 +1327,12 @@
     <t xml:space="preserve">Macedonian</t>
   </si>
   <si>
+    <t xml:space="preserve">mk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkd</t>
+  </si>
+  <si>
     <t xml:space="preserve">mlg</t>
   </si>
   <si>
@@ -988,6 +1342,9 @@
     <t xml:space="preserve">Malagasy</t>
   </si>
   <si>
+    <t xml:space="preserve">mg</t>
+  </si>
+  <si>
     <t xml:space="preserve">mlt</t>
   </si>
   <si>
@@ -997,6 +1354,9 @@
     <t xml:space="preserve">Maltese</t>
   </si>
   <si>
+    <t xml:space="preserve">mt</t>
+  </si>
+  <si>
     <t xml:space="preserve">mon</t>
   </si>
   <si>
@@ -1006,6 +1366,9 @@
     <t xml:space="preserve">Mongolian</t>
   </si>
   <si>
+    <t xml:space="preserve">mn</t>
+  </si>
+  <si>
     <t xml:space="preserve">mao</t>
   </si>
   <si>
@@ -1015,6 +1378,12 @@
     <t xml:space="preserve">Maori</t>
   </si>
   <si>
+    <t xml:space="preserve">mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mri</t>
+  </si>
+  <si>
     <t xml:space="preserve">may</t>
   </si>
   <si>
@@ -1024,6 +1393,12 @@
     <t xml:space="preserve">Malay</t>
   </si>
   <si>
+    <t xml:space="preserve">ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msa</t>
+  </si>
+  <si>
     <t xml:space="preserve">bur</t>
   </si>
   <si>
@@ -1033,6 +1408,12 @@
     <t xml:space="preserve">Burmese</t>
   </si>
   <si>
+    <t xml:space="preserve">my</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mya</t>
+  </si>
+  <si>
     <t xml:space="preserve">nau</t>
   </si>
   <si>
@@ -1042,6 +1423,9 @@
     <t xml:space="preserve">Nauru</t>
   </si>
   <si>
+    <t xml:space="preserve">na</t>
+  </si>
+  <si>
     <t xml:space="preserve">nav</t>
   </si>
   <si>
@@ -1051,6 +1435,9 @@
     <t xml:space="preserve">Navajo</t>
   </si>
   <si>
+    <t xml:space="preserve">nv</t>
+  </si>
+  <si>
     <t xml:space="preserve">nbl</t>
   </si>
   <si>
@@ -1060,6 +1447,9 @@
     <t xml:space="preserve">South Ndebele</t>
   </si>
   <si>
+    <t xml:space="preserve">nr</t>
+  </si>
+  <si>
     <t xml:space="preserve">nde</t>
   </si>
   <si>
@@ -1069,6 +1459,9 @@
     <t xml:space="preserve">North Ndebele</t>
   </si>
   <si>
+    <t xml:space="preserve">nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">ndo</t>
   </si>
   <si>
@@ -1078,6 +1471,9 @@
     <t xml:space="preserve">Ndonga</t>
   </si>
   <si>
+    <t xml:space="preserve">ng</t>
+  </si>
+  <si>
     <t xml:space="preserve">nep</t>
   </si>
   <si>
@@ -1087,6 +1483,9 @@
     <t xml:space="preserve">Nepali</t>
   </si>
   <si>
+    <t xml:space="preserve">ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">dut</t>
   </si>
   <si>
@@ -1096,6 +1495,12 @@
     <t xml:space="preserve">Dutch</t>
   </si>
   <si>
+    <t xml:space="preserve">nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nld</t>
+  </si>
+  <si>
     <t xml:space="preserve">nno</t>
   </si>
   <si>
@@ -1105,6 +1510,9 @@
     <t xml:space="preserve">Norwegian Nynorsk</t>
   </si>
   <si>
+    <t xml:space="preserve">nn</t>
+  </si>
+  <si>
     <t xml:space="preserve">nob</t>
   </si>
   <si>
@@ -1114,6 +1522,9 @@
     <t xml:space="preserve">Norwegian Bokmål</t>
   </si>
   <si>
+    <t xml:space="preserve">nb</t>
+  </si>
+  <si>
     <t xml:space="preserve">nor</t>
   </si>
   <si>
@@ -1123,6 +1534,9 @@
     <t xml:space="preserve">Norwegian</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">nya</t>
   </si>
   <si>
@@ -1132,6 +1546,9 @@
     <t xml:space="preserve">Nyanja</t>
   </si>
   <si>
+    <t xml:space="preserve">ny</t>
+  </si>
+  <si>
     <t xml:space="preserve">oci</t>
   </si>
   <si>
@@ -1141,6 +1558,9 @@
     <t xml:space="preserve">Occitan</t>
   </si>
   <si>
+    <t xml:space="preserve">oc</t>
+  </si>
+  <si>
     <t xml:space="preserve">oji</t>
   </si>
   <si>
@@ -1150,6 +1570,9 @@
     <t xml:space="preserve">Ojibwa</t>
   </si>
   <si>
+    <t xml:space="preserve">oj</t>
+  </si>
+  <si>
     <t xml:space="preserve">ori</t>
   </si>
   <si>
@@ -1159,6 +1582,9 @@
     <t xml:space="preserve">Odia</t>
   </si>
   <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
     <t xml:space="preserve">orm</t>
   </si>
   <si>
@@ -1168,6 +1594,9 @@
     <t xml:space="preserve">Oromo</t>
   </si>
   <si>
+    <t xml:space="preserve">om</t>
+  </si>
+  <si>
     <t xml:space="preserve">oss</t>
   </si>
   <si>
@@ -1177,6 +1606,9 @@
     <t xml:space="preserve">Ossetic</t>
   </si>
   <si>
+    <t xml:space="preserve">os</t>
+  </si>
+  <si>
     <t xml:space="preserve">pan</t>
   </si>
   <si>
@@ -1186,6 +1618,9 @@
     <t xml:space="preserve">Punjabi</t>
   </si>
   <si>
+    <t xml:space="preserve">pa</t>
+  </si>
+  <si>
     <t xml:space="preserve">pli</t>
   </si>
   <si>
@@ -1195,6 +1630,9 @@
     <t xml:space="preserve">Pali</t>
   </si>
   <si>
+    <t xml:space="preserve">pi</t>
+  </si>
+  <si>
     <t xml:space="preserve">pol</t>
   </si>
   <si>
@@ -1204,6 +1642,9 @@
     <t xml:space="preserve">Polish</t>
   </si>
   <si>
+    <t xml:space="preserve">pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">por</t>
   </si>
   <si>
@@ -1213,6 +1654,9 @@
     <t xml:space="preserve">Portuguese</t>
   </si>
   <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
     <t xml:space="preserve">pus</t>
   </si>
   <si>
@@ -1222,6 +1666,9 @@
     <t xml:space="preserve">Pashto</t>
   </si>
   <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
     <t xml:space="preserve">que</t>
   </si>
   <si>
@@ -1231,6 +1678,9 @@
     <t xml:space="preserve">Quechua</t>
   </si>
   <si>
+    <t xml:space="preserve">qu</t>
+  </si>
+  <si>
     <t xml:space="preserve">roh</t>
   </si>
   <si>
@@ -1240,6 +1690,9 @@
     <t xml:space="preserve">Romansh</t>
   </si>
   <si>
+    <t xml:space="preserve">rm</t>
+  </si>
+  <si>
     <t xml:space="preserve">rum</t>
   </si>
   <si>
@@ -1249,6 +1702,12 @@
     <t xml:space="preserve">Romanian</t>
   </si>
   <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">run</t>
   </si>
   <si>
@@ -1258,6 +1717,9 @@
     <t xml:space="preserve">Rundi</t>
   </si>
   <si>
+    <t xml:space="preserve">rn</t>
+  </si>
+  <si>
     <t xml:space="preserve">rus</t>
   </si>
   <si>
@@ -1267,6 +1729,9 @@
     <t xml:space="preserve">Russian</t>
   </si>
   <si>
+    <t xml:space="preserve">ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">sag</t>
   </si>
   <si>
@@ -1276,6 +1741,9 @@
     <t xml:space="preserve">Sango</t>
   </si>
   <si>
+    <t xml:space="preserve">sg</t>
+  </si>
+  <si>
     <t xml:space="preserve">san</t>
   </si>
   <si>
@@ -1285,6 +1753,9 @@
     <t xml:space="preserve">Sanskrit</t>
   </si>
   <si>
+    <t xml:space="preserve">sa</t>
+  </si>
+  <si>
     <t xml:space="preserve">sin</t>
   </si>
   <si>
@@ -1294,6 +1765,9 @@
     <t xml:space="preserve">Sinhala</t>
   </si>
   <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
     <t xml:space="preserve">slo</t>
   </si>
   <si>
@@ -1303,6 +1777,12 @@
     <t xml:space="preserve">Slovak</t>
   </si>
   <si>
+    <t xml:space="preserve">sk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slk</t>
+  </si>
+  <si>
     <t xml:space="preserve">slv</t>
   </si>
   <si>
@@ -1312,6 +1792,9 @@
     <t xml:space="preserve">Slovenian</t>
   </si>
   <si>
+    <t xml:space="preserve">sl</t>
+  </si>
+  <si>
     <t xml:space="preserve">sme</t>
   </si>
   <si>
@@ -1321,6 +1804,9 @@
     <t xml:space="preserve">Northern Sami</t>
   </si>
   <si>
+    <t xml:space="preserve">se</t>
+  </si>
+  <si>
     <t xml:space="preserve">smo</t>
   </si>
   <si>
@@ -1330,6 +1816,9 @@
     <t xml:space="preserve">Samoan</t>
   </si>
   <si>
+    <t xml:space="preserve">sm</t>
+  </si>
+  <si>
     <t xml:space="preserve">sna</t>
   </si>
   <si>
@@ -1339,6 +1828,9 @@
     <t xml:space="preserve">Shona</t>
   </si>
   <si>
+    <t xml:space="preserve">sn</t>
+  </si>
+  <si>
     <t xml:space="preserve">snd</t>
   </si>
   <si>
@@ -1348,6 +1840,9 @@
     <t xml:space="preserve">Sindhi</t>
   </si>
   <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">som</t>
   </si>
   <si>
@@ -1357,6 +1852,9 @@
     <t xml:space="preserve">Somali</t>
   </si>
   <si>
+    <t xml:space="preserve">so</t>
+  </si>
+  <si>
     <t xml:space="preserve">sot</t>
   </si>
   <si>
@@ -1366,6 +1864,9 @@
     <t xml:space="preserve">Southern Sotho</t>
   </si>
   <si>
+    <t xml:space="preserve">st</t>
+  </si>
+  <si>
     <t xml:space="preserve">spa</t>
   </si>
   <si>
@@ -1375,6 +1876,9 @@
     <t xml:space="preserve">Spanish</t>
   </si>
   <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
     <t xml:space="preserve">alb</t>
   </si>
   <si>
@@ -1384,6 +1888,12 @@
     <t xml:space="preserve">Albanian</t>
   </si>
   <si>
+    <t xml:space="preserve">sq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqi</t>
+  </si>
+  <si>
     <t xml:space="preserve">srd</t>
   </si>
   <si>
@@ -1393,6 +1903,9 @@
     <t xml:space="preserve">Sardinian</t>
   </si>
   <si>
+    <t xml:space="preserve">sc</t>
+  </si>
+  <si>
     <t xml:space="preserve">srp</t>
   </si>
   <si>
@@ -1402,6 +1915,9 @@
     <t xml:space="preserve">Serbian</t>
   </si>
   <si>
+    <t xml:space="preserve">sr</t>
+  </si>
+  <si>
     <t xml:space="preserve">ssw</t>
   </si>
   <si>
@@ -1411,6 +1927,9 @@
     <t xml:space="preserve">Swati</t>
   </si>
   <si>
+    <t xml:space="preserve">ss</t>
+  </si>
+  <si>
     <t xml:space="preserve">sun</t>
   </si>
   <si>
@@ -1420,6 +1939,9 @@
     <t xml:space="preserve">Sundanese</t>
   </si>
   <si>
+    <t xml:space="preserve">su</t>
+  </si>
+  <si>
     <t xml:space="preserve">swa</t>
   </si>
   <si>
@@ -1429,6 +1951,9 @@
     <t xml:space="preserve">Swahili</t>
   </si>
   <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">swe</t>
   </si>
   <si>
@@ -1438,6 +1963,9 @@
     <t xml:space="preserve">Swedish</t>
   </si>
   <si>
+    <t xml:space="preserve">sv</t>
+  </si>
+  <si>
     <t xml:space="preserve">tah</t>
   </si>
   <si>
@@ -1447,6 +1975,9 @@
     <t xml:space="preserve">Tahitian</t>
   </si>
   <si>
+    <t xml:space="preserve">ty</t>
+  </si>
+  <si>
     <t xml:space="preserve">tam</t>
   </si>
   <si>
@@ -1456,6 +1987,9 @@
     <t xml:space="preserve">Tamil</t>
   </si>
   <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
     <t xml:space="preserve">tat</t>
   </si>
   <si>
@@ -1465,6 +1999,9 @@
     <t xml:space="preserve">Tatar</t>
   </si>
   <si>
+    <t xml:space="preserve">tt</t>
+  </si>
+  <si>
     <t xml:space="preserve">tel</t>
   </si>
   <si>
@@ -1474,6 +2011,9 @@
     <t xml:space="preserve">Telugu</t>
   </si>
   <si>
+    <t xml:space="preserve">te</t>
+  </si>
+  <si>
     <t xml:space="preserve">tgk</t>
   </si>
   <si>
@@ -1483,6 +2023,9 @@
     <t xml:space="preserve">Tajik</t>
   </si>
   <si>
+    <t xml:space="preserve">tg</t>
+  </si>
+  <si>
     <t xml:space="preserve">tgl</t>
   </si>
   <si>
@@ -1492,6 +2035,9 @@
     <t xml:space="preserve">Tagalog</t>
   </si>
   <si>
+    <t xml:space="preserve">tl</t>
+  </si>
+  <si>
     <t xml:space="preserve">tha</t>
   </si>
   <si>
@@ -1501,6 +2047,9 @@
     <t xml:space="preserve">Thai</t>
   </si>
   <si>
+    <t xml:space="preserve">th</t>
+  </si>
+  <si>
     <t xml:space="preserve">tir</t>
   </si>
   <si>
@@ -1510,6 +2059,9 @@
     <t xml:space="preserve">Tigrinya</t>
   </si>
   <si>
+    <t xml:space="preserve">ti</t>
+  </si>
+  <si>
     <t xml:space="preserve">ton</t>
   </si>
   <si>
@@ -1519,6 +2071,9 @@
     <t xml:space="preserve">Tongan</t>
   </si>
   <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
     <t xml:space="preserve">tsn</t>
   </si>
   <si>
@@ -1528,6 +2083,9 @@
     <t xml:space="preserve">Tswana</t>
   </si>
   <si>
+    <t xml:space="preserve">tn</t>
+  </si>
+  <si>
     <t xml:space="preserve">tso</t>
   </si>
   <si>
@@ -1537,6 +2095,9 @@
     <t xml:space="preserve">Tsonga</t>
   </si>
   <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
     <t xml:space="preserve">tuk</t>
   </si>
   <si>
@@ -1546,6 +2107,9 @@
     <t xml:space="preserve">Turkmen</t>
   </si>
   <si>
+    <t xml:space="preserve">tk</t>
+  </si>
+  <si>
     <t xml:space="preserve">tur</t>
   </si>
   <si>
@@ -1555,12 +2119,18 @@
     <t xml:space="preserve">Turkish</t>
   </si>
   <si>
+    <t xml:space="preserve">tr</t>
+  </si>
+  <si>
     <t xml:space="preserve">twi</t>
   </si>
   <si>
     <t xml:space="preserve">Twi</t>
   </si>
   <si>
+    <t xml:space="preserve">tw</t>
+  </si>
+  <si>
     <t xml:space="preserve">uig</t>
   </si>
   <si>
@@ -1570,6 +2140,9 @@
     <t xml:space="preserve">Uyghur</t>
   </si>
   <si>
+    <t xml:space="preserve">ug</t>
+  </si>
+  <si>
     <t xml:space="preserve">ukr</t>
   </si>
   <si>
@@ -1579,6 +2152,9 @@
     <t xml:space="preserve">Ukrainian</t>
   </si>
   <si>
+    <t xml:space="preserve">uk</t>
+  </si>
+  <si>
     <t xml:space="preserve">urd</t>
   </si>
   <si>
@@ -1588,6 +2164,9 @@
     <t xml:space="preserve">Urdu</t>
   </si>
   <si>
+    <t xml:space="preserve">ur</t>
+  </si>
+  <si>
     <t xml:space="preserve">uzb</t>
   </si>
   <si>
@@ -1597,6 +2176,9 @@
     <t xml:space="preserve">Uzbek</t>
   </si>
   <si>
+    <t xml:space="preserve">uz</t>
+  </si>
+  <si>
     <t xml:space="preserve">ven</t>
   </si>
   <si>
@@ -1606,6 +2188,9 @@
     <t xml:space="preserve">Venda</t>
   </si>
   <si>
+    <t xml:space="preserve">ve</t>
+  </si>
+  <si>
     <t xml:space="preserve">vie</t>
   </si>
   <si>
@@ -1615,6 +2200,9 @@
     <t xml:space="preserve">Vietnamese</t>
   </si>
   <si>
+    <t xml:space="preserve">vi</t>
+  </si>
+  <si>
     <t xml:space="preserve">vol</t>
   </si>
   <si>
@@ -1624,6 +2212,9 @@
     <t xml:space="preserve">Volapük</t>
   </si>
   <si>
+    <t xml:space="preserve">vo</t>
+  </si>
+  <si>
     <t xml:space="preserve">wln</t>
   </si>
   <si>
@@ -1633,6 +2224,9 @@
     <t xml:space="preserve">Walloon</t>
   </si>
   <si>
+    <t xml:space="preserve">wa</t>
+  </si>
+  <si>
     <t xml:space="preserve">wol</t>
   </si>
   <si>
@@ -1642,6 +2236,9 @@
     <t xml:space="preserve">Wolof</t>
   </si>
   <si>
+    <t xml:space="preserve">wo</t>
+  </si>
+  <si>
     <t xml:space="preserve">xho</t>
   </si>
   <si>
@@ -1651,6 +2248,9 @@
     <t xml:space="preserve">Xhosa</t>
   </si>
   <si>
+    <t xml:space="preserve">xh</t>
+  </si>
+  <si>
     <t xml:space="preserve">yid</t>
   </si>
   <si>
@@ -1660,6 +2260,9 @@
     <t xml:space="preserve">Yiddish</t>
   </si>
   <si>
+    <t xml:space="preserve">yi</t>
+  </si>
+  <si>
     <t xml:space="preserve">yor</t>
   </si>
   <si>
@@ -1669,6 +2272,9 @@
     <t xml:space="preserve">Yoruba</t>
   </si>
   <si>
+    <t xml:space="preserve">yo</t>
+  </si>
+  <si>
     <t xml:space="preserve">zha</t>
   </si>
   <si>
@@ -1678,6 +2284,9 @@
     <t xml:space="preserve">Zhuang</t>
   </si>
   <si>
+    <t xml:space="preserve">za</t>
+  </si>
+  <si>
     <t xml:space="preserve">chi</t>
   </si>
   <si>
@@ -1687,6 +2296,12 @@
     <t xml:space="preserve">Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zho</t>
+  </si>
+  <si>
     <t xml:space="preserve">zul</t>
   </si>
   <si>
@@ -1694,6 +2309,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zu</t>
   </si>
 </sst>
 </file>
@@ -1790,13 +2408,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.52"/>
@@ -1838,2581 +2456,3199 @@
       <c r="D5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>64</v>
+        <v>85</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>79</v>
+        <v>106</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>82</v>
+        <v>110</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>88</v>
+        <v>118</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>97</v>
+        <v>130</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>100</v>
+        <v>134</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>103</v>
+        <v>139</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>106</v>
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>109</v>
+        <v>148</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>112</v>
+        <v>152</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>115</v>
+        <v>156</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>118</v>
+        <v>161</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>121</v>
+        <v>165</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>124</v>
+        <v>169</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>173</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>130</v>
+        <v>178</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>133</v>
+        <v>182</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>136</v>
+        <v>186</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>139</v>
+        <v>191</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>142</v>
+        <v>195</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>145</v>
+        <v>199</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>148</v>
+        <v>204</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>154</v>
+        <v>212</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>157</v>
+        <v>216</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>160</v>
+        <v>220</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>163</v>
+        <v>224</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>166</v>
+        <v>228</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>169</v>
+        <v>232</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>172</v>
+        <v>236</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>175</v>
+        <v>240</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>178</v>
+        <v>244</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>181</v>
+        <v>248</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>184</v>
+        <v>252</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>187</v>
+        <v>256</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>190</v>
+        <v>260</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>193</v>
+        <v>264</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>196</v>
+        <v>268</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>199</v>
+        <v>272</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>202</v>
+        <v>277</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>204</v>
+        <v>280</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>207</v>
+        <v>284</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>210</v>
+        <v>288</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>213</v>
+        <v>292</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>216</v>
+        <v>296</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>219</v>
+        <v>300</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>222</v>
+        <v>304</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>225</v>
+        <v>308</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>228</v>
+        <v>313</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>231</v>
+        <v>317</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>234</v>
+        <v>321</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>237</v>
+        <v>325</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>240</v>
+        <v>329</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>243</v>
+        <v>333</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>246</v>
+        <v>337</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>249</v>
+        <v>342</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>252</v>
+        <v>346</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>255</v>
+        <v>350</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>258</v>
+        <v>354</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>261</v>
+        <v>358</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>262</v>
+        <v>360</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>264</v>
+        <v>362</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>267</v>
+        <v>366</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>270</v>
+        <v>370</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>273</v>
+        <v>374</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>276</v>
+        <v>378</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>279</v>
+        <v>382</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>282</v>
+        <v>386</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>285</v>
+        <v>390</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>288</v>
+        <v>394</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>291</v>
+        <v>398</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>294</v>
+        <v>402</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>297</v>
+        <v>406</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>300</v>
+        <v>410</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>303</v>
+        <v>414</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>306</v>
+        <v>418</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>309</v>
+        <v>422</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>312</v>
+        <v>426</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>315</v>
+        <v>430</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>318</v>
+        <v>434</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>321</v>
+        <v>439</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>324</v>
+        <v>443</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>327</v>
+        <v>447</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>330</v>
+        <v>451</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>331</v>
+        <v>454</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>333</v>
+        <v>456</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>335</v>
+        <v>460</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>336</v>
+        <v>461</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>337</v>
+        <v>464</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>338</v>
+        <v>465</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>339</v>
+        <v>466</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>342</v>
+        <v>470</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>343</v>
+        <v>472</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>344</v>
+        <v>473</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>345</v>
+        <v>474</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>346</v>
+        <v>476</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>348</v>
+        <v>478</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>351</v>
+        <v>482</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>353</v>
+        <v>485</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>354</v>
+        <v>486</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>355</v>
+        <v>488</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>357</v>
+        <v>490</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>358</v>
+        <v>493</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>360</v>
+        <v>495</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>361</v>
+        <v>497</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>362</v>
+        <v>498</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>363</v>
+        <v>499</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>364</v>
+        <v>501</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>365</v>
+        <v>502</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>366</v>
+        <v>503</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>368</v>
+        <v>506</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>369</v>
+        <v>507</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>370</v>
+        <v>509</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>372</v>
+        <v>511</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>373</v>
+        <v>513</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>374</v>
+        <v>514</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>375</v>
+        <v>515</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>376</v>
+        <v>517</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>377</v>
+        <v>518</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>378</v>
+        <v>519</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>379</v>
+        <v>521</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>381</v>
+        <v>523</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>382</v>
+        <v>525</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>384</v>
+        <v>527</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>387</v>
+        <v>531</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>388</v>
+        <v>533</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>389</v>
+        <v>534</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>390</v>
+        <v>535</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>391</v>
+        <v>537</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>392</v>
+        <v>538</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>393</v>
+        <v>539</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>394</v>
+        <v>541</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>395</v>
+        <v>542</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>396</v>
+        <v>543</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>397</v>
+        <v>545</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>398</v>
+        <v>546</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>399</v>
+        <v>547</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>401</v>
+        <v>550</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>402</v>
+        <v>551</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>405</v>
+        <v>555</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>406</v>
+        <v>557</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>407</v>
+        <v>558</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>408</v>
+        <v>559</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>409</v>
+        <v>562</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>410</v>
+        <v>563</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>411</v>
+        <v>564</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>412</v>
+        <v>566</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>414</v>
+        <v>568</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>416</v>
+        <v>571</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>417</v>
+        <v>572</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>418</v>
+        <v>574</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>419</v>
+        <v>575</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>420</v>
+        <v>576</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>421</v>
+        <v>578</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>422</v>
+        <v>579</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>423</v>
+        <v>580</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>426</v>
+        <v>584</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>427</v>
+        <v>587</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>428</v>
+        <v>588</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>429</v>
+        <v>589</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>430</v>
+        <v>591</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>431</v>
+        <v>592</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>432</v>
+        <v>593</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>433</v>
+        <v>595</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>434</v>
+        <v>596</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>435</v>
+        <v>597</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>436</v>
+        <v>599</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>438</v>
+        <v>601</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>439</v>
+        <v>603</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>440</v>
+        <v>604</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>441</v>
+        <v>605</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>442</v>
+        <v>607</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>443</v>
+        <v>608</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>444</v>
+        <v>609</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>445</v>
+        <v>611</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>446</v>
+        <v>612</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>447</v>
+        <v>613</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>448</v>
+        <v>615</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>449</v>
+        <v>616</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>450</v>
+        <v>617</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>452</v>
+        <v>620</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>453</v>
+        <v>621</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>454</v>
+        <v>624</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>455</v>
+        <v>625</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>456</v>
+        <v>626</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>457</v>
+        <v>628</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>459</v>
+        <v>630</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>460</v>
+        <v>632</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>461</v>
+        <v>633</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>462</v>
+        <v>634</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>463</v>
+        <v>636</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>464</v>
+        <v>637</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>465</v>
+        <v>638</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>466</v>
+        <v>640</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>467</v>
+        <v>641</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>468</v>
+        <v>642</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>470</v>
+        <v>645</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>471</v>
+        <v>646</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>472</v>
+        <v>648</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>473</v>
+        <v>649</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>474</v>
+        <v>650</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>475</v>
+        <v>652</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>476</v>
+        <v>653</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>477</v>
+        <v>654</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>478</v>
+        <v>656</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>479</v>
+        <v>657</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>480</v>
+        <v>658</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>481</v>
+        <v>660</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>482</v>
+        <v>661</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>483</v>
+        <v>662</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>484</v>
+        <v>664</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>485</v>
+        <v>665</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>486</v>
+        <v>666</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>487</v>
+        <v>668</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>488</v>
+        <v>669</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>489</v>
+        <v>670</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>490</v>
+        <v>672</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>491</v>
+        <v>673</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>492</v>
+        <v>674</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>493</v>
+        <v>676</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>494</v>
+        <v>677</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>495</v>
+        <v>678</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>496</v>
+        <v>680</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>498</v>
+        <v>682</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>499</v>
+        <v>684</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>500</v>
+        <v>685</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>501</v>
+        <v>686</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>502</v>
+        <v>688</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>503</v>
+        <v>689</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>504</v>
+        <v>690</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>505</v>
+        <v>692</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>506</v>
+        <v>693</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>507</v>
+        <v>694</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>508</v>
+        <v>696</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>509</v>
+        <v>697</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>510</v>
+        <v>698</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>512</v>
+        <v>701</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>513</v>
+        <v>703</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>514</v>
+        <v>704</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>515</v>
+        <v>705</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>516</v>
+        <v>707</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>517</v>
+        <v>708</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>518</v>
+        <v>709</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>519</v>
+        <v>711</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>520</v>
+        <v>712</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>521</v>
+        <v>713</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>522</v>
+        <v>715</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>523</v>
+        <v>716</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>524</v>
+        <v>717</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>525</v>
+        <v>719</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>526</v>
+        <v>720</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>527</v>
+        <v>721</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>528</v>
+        <v>723</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>529</v>
+        <v>724</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>530</v>
+        <v>725</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>531</v>
+        <v>727</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>532</v>
+        <v>728</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>533</v>
+        <v>729</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>534</v>
+        <v>731</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>535</v>
+        <v>732</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>536</v>
+        <v>733</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>537</v>
+        <v>735</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>538</v>
+        <v>736</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>539</v>
+        <v>737</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>540</v>
+        <v>739</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>541</v>
+        <v>740</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>542</v>
+        <v>741</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>543</v>
+        <v>743</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>544</v>
+        <v>744</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>545</v>
+        <v>745</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>546</v>
+        <v>747</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>547</v>
+        <v>748</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>548</v>
+        <v>749</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>549</v>
+        <v>751</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>550</v>
+        <v>752</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>551</v>
+        <v>753</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>552</v>
+        <v>755</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>553</v>
+        <v>756</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>554</v>
+        <v>757</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>555</v>
+        <v>760</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>556</v>
+        <v>761</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>557</v>
+        <v>762</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/languages.xlsx
+++ b/data/excel/languages.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\aktualne_pouzite_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\aktualne_pouzite_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="languages" sheetId="1" r:id="rId1"/>
@@ -2312,10 +2312,10 @@
     <t>zu</t>
   </si>
   <si>
-    <t>alpha2Code</t>
-  </si>
-  <si>
-    <t>aliases_0</t>
+    <t>alpha3CodeENG</t>
+  </si>
+  <si>
+    <t>alpha3CodeNative</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2356,18 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2634,18 +2645,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2687,9 +2699,9 @@
         <v>763</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2701,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2718,12 +2730,12 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2735,12 +2747,12 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2752,12 +2764,12 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2769,12 +2781,12 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2786,12 +2798,12 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2803,12 +2815,12 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2820,12 +2832,12 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2837,12 +2849,12 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2854,12 +2866,12 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2871,12 +2883,12 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2888,12 +2900,12 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2905,12 +2917,12 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2922,12 +2934,12 @@
         <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2939,12 +2951,12 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2956,12 +2968,12 @@
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2973,12 +2985,12 @@
         <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2990,15 +3002,15 @@
         <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3010,12 +3022,12 @@
         <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3027,12 +3039,12 @@
         <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3044,12 +3056,12 @@
         <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3061,12 +3073,12 @@
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3078,15 +3090,15 @@
         <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3098,12 +3110,12 @@
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3115,12 +3127,12 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3132,12 +3144,12 @@
         <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3149,12 +3161,12 @@
         <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3166,12 +3178,12 @@
         <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3183,12 +3195,12 @@
         <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3200,12 +3212,12 @@
         <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3217,15 +3229,15 @@
         <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3237,12 +3249,12 @@
         <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3254,15 +3266,15 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3274,12 +3286,12 @@
         <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3291,12 +3303,12 @@
         <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3308,15 +3320,15 @@
         <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3328,12 +3340,12 @@
         <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3345,12 +3357,12 @@
         <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3362,12 +3374,12 @@
         <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3379,15 +3391,15 @@
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3399,12 +3411,12 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3416,12 +3428,12 @@
         <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3433,15 +3445,15 @@
         <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3453,12 +3465,12 @@
         <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3470,12 +3482,12 @@
         <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3487,15 +3499,15 @@
         <v>197</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3507,12 +3519,12 @@
         <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3524,12 +3536,12 @@
         <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3541,12 +3553,12 @@
         <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3558,12 +3570,12 @@
         <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3575,12 +3587,12 @@
         <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3592,12 +3604,12 @@
         <v>222</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3609,12 +3621,12 @@
         <v>226</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3626,12 +3638,12 @@
         <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3643,12 +3655,12 @@
         <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3660,12 +3672,12 @@
         <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3677,12 +3689,12 @@
         <v>242</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3694,12 +3706,12 @@
         <v>246</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3711,12 +3723,12 @@
         <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3728,12 +3740,12 @@
         <v>254</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3745,12 +3757,12 @@
         <v>258</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3762,12 +3774,12 @@
         <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3779,12 +3791,12 @@
         <v>266</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3796,15 +3808,15 @@
         <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F69" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3816,12 +3828,12 @@
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3833,12 +3845,12 @@
         <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3850,12 +3862,12 @@
         <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3867,12 +3879,12 @@
         <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3884,12 +3896,12 @@
         <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3901,12 +3913,12 @@
         <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3918,12 +3930,12 @@
         <v>298</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3935,12 +3947,12 @@
         <v>302</v>
       </c>
       <c r="E77" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3952,15 +3964,15 @@
         <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3972,12 +3984,12 @@
         <v>311</v>
       </c>
       <c r="E79" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3989,12 +4001,12 @@
         <v>315</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4006,12 +4018,12 @@
         <v>319</v>
       </c>
       <c r="E81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4023,12 +4035,12 @@
         <v>323</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4040,12 +4052,12 @@
         <v>327</v>
       </c>
       <c r="E83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4057,12 +4069,12 @@
         <v>331</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4074,15 +4086,15 @@
         <v>335</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F85" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4094,12 +4106,12 @@
         <v>340</v>
       </c>
       <c r="E86" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4111,12 +4123,12 @@
         <v>344</v>
       </c>
       <c r="E87" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4128,12 +4140,12 @@
         <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4145,12 +4157,12 @@
         <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4162,12 +4174,12 @@
         <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4179,12 +4191,12 @@
         <v>360</v>
       </c>
       <c r="E91" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4196,12 +4208,12 @@
         <v>364</v>
       </c>
       <c r="E92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4213,12 +4225,12 @@
         <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4230,12 +4242,12 @@
         <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4247,12 +4259,12 @@
         <v>376</v>
       </c>
       <c r="E95" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4264,12 +4276,12 @@
         <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4281,12 +4293,12 @@
         <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4298,12 +4310,12 @@
         <v>388</v>
       </c>
       <c r="E98" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4315,12 +4327,12 @@
         <v>392</v>
       </c>
       <c r="E99" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4332,12 +4344,12 @@
         <v>396</v>
       </c>
       <c r="E100" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4349,12 +4361,12 @@
         <v>400</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4366,12 +4378,12 @@
         <v>404</v>
       </c>
       <c r="E102" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4383,12 +4395,12 @@
         <v>408</v>
       </c>
       <c r="E103" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4400,12 +4412,12 @@
         <v>412</v>
       </c>
       <c r="E104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4417,12 +4429,12 @@
         <v>416</v>
       </c>
       <c r="E105" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4434,12 +4446,12 @@
         <v>420</v>
       </c>
       <c r="E106" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4451,12 +4463,12 @@
         <v>424</v>
       </c>
       <c r="E107" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4468,12 +4480,12 @@
         <v>428</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4485,15 +4497,15 @@
         <v>432</v>
       </c>
       <c r="E109" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F109" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4505,12 +4517,12 @@
         <v>437</v>
       </c>
       <c r="E110" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4522,12 +4534,12 @@
         <v>441</v>
       </c>
       <c r="E111" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4539,12 +4551,12 @@
         <v>445</v>
       </c>
       <c r="E112" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4556,15 +4568,15 @@
         <v>449</v>
       </c>
       <c r="E113" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4576,15 +4588,15 @@
         <v>454</v>
       </c>
       <c r="E114" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F114" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4596,15 +4608,15 @@
         <v>459</v>
       </c>
       <c r="E115" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F115" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4616,12 +4628,12 @@
         <v>464</v>
       </c>
       <c r="E116" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4633,12 +4645,12 @@
         <v>468</v>
       </c>
       <c r="E117" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4650,12 +4662,12 @@
         <v>472</v>
       </c>
       <c r="E118" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4667,12 +4679,12 @@
         <v>476</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4684,12 +4696,12 @@
         <v>480</v>
       </c>
       <c r="E120" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4701,12 +4713,12 @@
         <v>484</v>
       </c>
       <c r="E121" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4718,15 +4730,15 @@
         <v>488</v>
       </c>
       <c r="E122" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F122" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4738,12 +4750,12 @@
         <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4755,12 +4767,12 @@
         <v>497</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4772,12 +4784,12 @@
         <v>501</v>
       </c>
       <c r="E125" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4789,12 +4801,12 @@
         <v>505</v>
       </c>
       <c r="E126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4806,12 +4818,12 @@
         <v>509</v>
       </c>
       <c r="E127" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4823,12 +4835,12 @@
         <v>513</v>
       </c>
       <c r="E128" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4840,12 +4852,12 @@
         <v>517</v>
       </c>
       <c r="E129" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4857,12 +4869,12 @@
         <v>521</v>
       </c>
       <c r="E130" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4874,12 +4886,12 @@
         <v>525</v>
       </c>
       <c r="E131" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4891,12 +4903,12 @@
         <v>529</v>
       </c>
       <c r="E132" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4908,12 +4920,12 @@
         <v>533</v>
       </c>
       <c r="E133" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4925,12 +4937,12 @@
         <v>537</v>
       </c>
       <c r="E134" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4942,12 +4954,12 @@
         <v>541</v>
       </c>
       <c r="E135" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4959,12 +4971,12 @@
         <v>545</v>
       </c>
       <c r="E136" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4976,12 +4988,12 @@
         <v>549</v>
       </c>
       <c r="E137" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4993,12 +5005,12 @@
         <v>553</v>
       </c>
       <c r="E138" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5010,15 +5022,15 @@
         <v>557</v>
       </c>
       <c r="E139" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F139" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5030,12 +5042,12 @@
         <v>562</v>
       </c>
       <c r="E140" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5047,12 +5059,12 @@
         <v>566</v>
       </c>
       <c r="E141" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5064,12 +5076,12 @@
         <v>570</v>
       </c>
       <c r="E142" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5081,12 +5093,12 @@
         <v>574</v>
       </c>
       <c r="E143" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5098,12 +5110,12 @@
         <v>578</v>
       </c>
       <c r="E144" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5115,15 +5127,15 @@
         <v>582</v>
       </c>
       <c r="E145" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F145" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5135,12 +5147,12 @@
         <v>587</v>
       </c>
       <c r="E146" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5152,12 +5164,12 @@
         <v>591</v>
       </c>
       <c r="E147" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5169,12 +5181,12 @@
         <v>595</v>
       </c>
       <c r="E148" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5186,12 +5198,12 @@
         <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5203,12 +5215,12 @@
         <v>603</v>
       </c>
       <c r="E150" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5220,12 +5232,12 @@
         <v>607</v>
       </c>
       <c r="E151" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5237,12 +5249,12 @@
         <v>611</v>
       </c>
       <c r="E152" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -5254,12 +5266,12 @@
         <v>615</v>
       </c>
       <c r="E153" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5271,15 +5283,15 @@
         <v>619</v>
       </c>
       <c r="E154" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F154" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5291,12 +5303,12 @@
         <v>624</v>
       </c>
       <c r="E155" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -5308,12 +5320,12 @@
         <v>628</v>
       </c>
       <c r="E156" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5325,12 +5337,12 @@
         <v>632</v>
       </c>
       <c r="E157" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5342,12 +5354,12 @@
         <v>636</v>
       </c>
       <c r="E158" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5359,12 +5371,12 @@
         <v>640</v>
       </c>
       <c r="E159" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5376,12 +5388,12 @@
         <v>644</v>
       </c>
       <c r="E160" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5393,12 +5405,12 @@
         <v>648</v>
       </c>
       <c r="E161" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5410,12 +5422,12 @@
         <v>652</v>
       </c>
       <c r="E162" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5427,12 +5439,12 @@
         <v>656</v>
       </c>
       <c r="E163" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5444,12 +5456,12 @@
         <v>660</v>
       </c>
       <c r="E164" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5461,12 +5473,12 @@
         <v>664</v>
       </c>
       <c r="E165" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5478,12 +5490,12 @@
         <v>668</v>
       </c>
       <c r="E166" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5495,12 +5507,12 @@
         <v>672</v>
       </c>
       <c r="E167" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5512,12 +5524,12 @@
         <v>676</v>
       </c>
       <c r="E168" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5529,12 +5541,12 @@
         <v>680</v>
       </c>
       <c r="E169" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5546,12 +5558,12 @@
         <v>684</v>
       </c>
       <c r="E170" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5563,12 +5575,12 @@
         <v>688</v>
       </c>
       <c r="E171" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5580,12 +5592,12 @@
         <v>692</v>
       </c>
       <c r="E172" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5597,12 +5609,12 @@
         <v>696</v>
       </c>
       <c r="E173" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5614,12 +5626,12 @@
         <v>699</v>
       </c>
       <c r="E174" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5631,12 +5643,12 @@
         <v>703</v>
       </c>
       <c r="E175" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5648,12 +5660,12 @@
         <v>707</v>
       </c>
       <c r="E176" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5665,12 +5677,12 @@
         <v>711</v>
       </c>
       <c r="E177" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5682,12 +5694,12 @@
         <v>715</v>
       </c>
       <c r="E178" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5699,12 +5711,12 @@
         <v>719</v>
       </c>
       <c r="E179" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5716,12 +5728,12 @@
         <v>723</v>
       </c>
       <c r="E180" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5733,12 +5745,12 @@
         <v>727</v>
       </c>
       <c r="E181" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5750,12 +5762,12 @@
         <v>731</v>
       </c>
       <c r="E182" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5767,12 +5779,12 @@
         <v>735</v>
       </c>
       <c r="E183" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5784,12 +5796,12 @@
         <v>739</v>
       </c>
       <c r="E184" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5801,12 +5813,12 @@
         <v>743</v>
       </c>
       <c r="E185" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5818,12 +5830,12 @@
         <v>747</v>
       </c>
       <c r="E186" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5835,12 +5847,12 @@
         <v>751</v>
       </c>
       <c r="E187" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5852,15 +5864,15 @@
         <v>755</v>
       </c>
       <c r="E188" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F188" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5872,10 +5884,13 @@
         <v>760</v>
       </c>
       <c r="E189" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E5 E190:E1048576 A6:A189">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
